--- a/graph_generation/results/hermes_llama2/level_10/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_10/k_1.xlsx
@@ -30,7 +30,7 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -47,23 +47,28 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node E, and then from node node E to node K? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K
- A 0 1 1 0 0 0 0 0 0 0 3
- B 1 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 4 0 5 0 0 0 0 0
- D 0 0 4 0 5 0 0 0 0 0 0
- E 0 0 0 5 0 0 0 0 0 0 0
- F 0 0 5 0 0 0 4 0 0 0 1
- G 0 0 0 0 0 4 0 1 0 2 0
- H 0 0 0 0 0 0 1 0 1 0 0
- I 0 0 0 0 0 0 0 1 0 0 0
- J 0 0 0 0 0 0 2 0 0 0 0
- K 3 0 0 0 0 1 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node D, and then from node node D to node P? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 4 0 0 0 0 0 5 0 0 2 0 4 0 0 0
+ B 4 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ G 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 5 0 0 0 0 0 0 0 4 0 0 0 0 1 0 4
+ I 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ K 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0
+ M 4 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ N 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3
+ P 0 0 0 0 0 0 0 4 0 0 0 0 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -80,26 +85,28 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node E, and then from node node E to node N? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 5 0 0 0 0 0 0 0 0 2 0 0 0
- B 5 0 4 0 0 0 0 0 0 0 0 0 0 1
- C 0 4 0 2 1 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 3 5 0 4 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 5 0 0 4 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- I 0 0 0 0 4 0 0 0 0 2 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- K 2 0 0 0 0 0 0 0 0 0 0 1 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 3 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 2
- N 0 1 0 0 0 0 0 0 0 0 0 0 2 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node G, and then from node node G to node P? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 4 0 1 0 0 0 0 0 0 2 0 0 0 0 0
+ B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0
+ E 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ I 0 0 0 2 0 0 0 0 0 4 0 0 0 2 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 5
+ K 2 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0
+ N 0 0 0 0 0 0 0 0 2 0 0 0 4 0 0 0
+ O 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 3
+ P 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -116,26 +123,28 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node F, and then from node node F to node N? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 2 1 3 0 0 0 0 0 0 0 0 2
- C 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 3 0 0 0 1 4 0 0 0 5 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 4 0 0 5 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 1 2 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- K 0 0 0 0 5 0 0 0 0 0 0 3 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 2 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 2
- N 0 2 0 0 0 0 0 0 0 0 0 0 2 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node F, and then from node node F to node P? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 5 0 0 0 0 0 0 0 1 0 0
+ F 0 0 0 0 5 0 2 2 0 1 0 0 2 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 2
+ K 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0
+ M 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0
+ N 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5
+ P 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -152,29 +161,23 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node G, and then from node node G to node Q? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q
- A 0 5 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 4 0 0 0 0 0 0 4 0 0 0 0 0 0
- D 0 0 4 0 2 1 2 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 2
- I 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- K 0 0 4 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3
- Q 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node J, and then from node node J to node K? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K
+ A 0 5 2 0 0 0 0 0 0 2 2
+ B 5 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 1 0 0 0 0 0 0 0
+ D 0 0 1 0 4 0 1 0 0 0 0
+ E 0 0 0 4 0 3 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 4 0 0 0
+ H 0 0 0 0 0 0 4 0 2 0 0
+ I 0 0 0 0 0 0 0 2 0 0 0
+ J 2 0 0 0 0 0 0 0 0 0 0
+ K 2 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 13 nodes labelled A to M. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -191,23 +194,25 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node D, and then from node node D to node K? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K
- A 0 3 0 0 0 0 0 0 0 0 0
- B 3 0 4 0 0 0 1 0 0 0 0
- C 0 4 0 5 4 2 0 0 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0
- E 0 0 4 0 0 0 0 0 0 0 0
- F 0 0 2 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 2 0 0 0
- H 0 0 0 0 0 0 2 0 5 0 1
- I 0 0 0 0 0 0 0 5 0 4 0
- J 0 0 0 0 0 0 0 0 4 0 5
- K 0 0 0 0 0 0 0 1 0 5 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node K, and then from node node K to node M? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M
+ A 0 2 0 0 0 0 0 0 0 0 1 0 1
+ B 2 0 3 0 4 0 0 0 0 0 0 0 0
+ C 0 3 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0
+ E 0 4 0 0 0 1 0 0 0 2 0 0 0
+ F 0 0 0 0 1 0 5 4 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 0 0 0
+ H 0 0 0 0 0 4 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 0 0 0 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 4 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 5
+ M 1 0 0 0 0 0 0 0 0 0 0 5 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -224,26 +229,28 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node M, and then from node node M to node N? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 4 3 0 0 0 0 0 0 0 5 0 0 0
- B 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 3 0 0 1 3 0 4 0 0 0 0 0 0 4
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 3 0 0 5 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 4 0 0 0 0 5 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 2 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 3 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- K 5 0 0 0 0 0 0 0 0 0 0 1 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 4 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 4
- N 0 0 4 0 0 0 0 0 0 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node M, and then from node node M to node P? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 5 2 0 0 0 0 0 0 0 0 5 0 0 0 3
+ B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 5 0 0 4 0 0 0 1 0 0 0 0 0
+ D 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 1 3 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ K 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0
+ L 5 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ P 3 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -260,29 +267,23 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node J, and then from node node J to node Q? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q
- A 0 3 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 1 0
- G 0 0 0 0 0 2 0 3 1 0 4 0 0 0 1 0 5
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 5 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0
- O 0 0 0 0 0 0 1 0 0 0 0 0 0 3 0 0 0
- P 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 5
- Q 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 5 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node D, and then from node node D to node K? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K
+ A 0 2 0 0 0 0 0 0 0 0 0
+ B 2 0 2 0 0 0 0 0 0 0 4
+ C 0 2 0 4 0 0 0 0 0 0 0
+ D 0 0 4 0 3 0 0 0 0 0 2
+ E 0 0 0 3 0 3 3 3 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 3 0 0 0 0 0 0
+ H 0 0 0 0 3 0 0 0 2 0 0
+ I 0 0 0 0 0 0 0 2 0 2 0
+ J 0 0 0 0 0 0 0 0 2 0 0
+ K 0 4 0 2 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -299,24 +300,26 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node E, and then from node node E to node L? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L
- A 0 3 0 0 2 0 0 2 0 2 0 0
- B 3 0 1 0 0 0 0 0 0 0 0 0
- C 0 1 0 2 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 5 0 0 0 0 0 0
- F 0 0 0 0 5 0 5 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 0 0
- H 2 0 0 0 0 0 0 0 4 0 0 0
- I 0 0 0 0 0 0 0 4 0 0 0 0
- J 2 0 0 0 0 0 0 0 0 0 5 5
- K 0 0 0 0 0 0 0 0 0 5 0 3
- L 0 0 0 0 0 0 0 0 0 5 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node E, and then from node node E to node N? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 4 0 0 0 0 0 3 0 0 0 3 0 0
+ B 4 0 1 3 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 3 0 0 3 4 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 4 0 0 5 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ H 3 0 0 0 0 0 0 0 2 4 1 0 0 0
+ I 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 4 0 0 3 0 0 1
+ K 0 0 0 0 0 0 0 1 0 3 0 0 0 0
+ L 3 0 0 0 0 0 0 0 0 0 0 0 2 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 3
+ N 0 0 0 0 0 0 0 0 0 1 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 19 nodes labelled A to S. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -333,26 +336,31 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node K, and then from node node K to node N? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 4 0 0 0 0 0 0 0 3 0 0 3
- C 0 4 0 3 0 1 0 0 0 0 0 0 0 4
- D 0 0 3 0 2 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- F 0 0 1 0 0 0 3 0 0 0 0 0 4 0
- G 0 0 0 0 0 3 0 1 2 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 2 0 0 5 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- K 0 3 0 0 0 0 0 0 0 0 0 4 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 4 0
- M 0 0 0 0 0 4 0 0 0 0 0 4 0 0
- N 0 3 4 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node G, and then from node node G to node S? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S
+ A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ B 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5
+ D 0 0 1 0 4 0 0 0 0 2 3 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0
+ O 0 0 3 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ P 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
+ S 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -369,152 +377,127 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node C, and then from node node C to node N? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 4 0 0 3 2 0 0 0 0 0 0 0 0
- B 4 0 4 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 2 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 4 4 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 4 0 0 4 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 5 4 1 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 1 2
- K 0 0 0 0 0 0 0 0 4 0 0 2 0 0
- L 0 0 0 0 0 0 0 0 1 0 2 0 0 0
- M 0 0 0 0 0 0 0 0 0 1 0 0 0 4
- N 0 0 0 0 0 0 0 0 0 2 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t>Path from A to E: A -&gt; C -&gt; D -&gt; E
-Path from E to K: E -&gt; D -&gt; C -&gt; A -&gt; K</t>
-  </si>
-  <si>
-    <t>Path from A to E: A -&gt; B -&gt; C -&gt; E
-Path from E to N: E -&gt; C -&gt; B -&gt; N</t>
-  </si>
-  <si>
-    <t>Path from A to F: A -&gt; B -&gt; E -&gt; F
-Path from F to N: F -&gt; E -&gt; B -&gt; N</t>
-  </si>
-  <si>
-    <t>Path from A to G: A -&gt; C -&gt; D -&gt; G
-Path from G to Q: G -&gt; H -&gt; Q</t>
+What is the least cost path to travel first from node A to node D, and then from node node D to node K? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K
+ A 0 3 0 0 0 0 0 0 0 0 3
+ B 3 0 5 5 5 0 0 0 0 0 1
+ C 0 5 0 0 0 0 0 0 0 0 0
+ D 0 5 0 0 0 0 0 0 0 0 0
+ E 0 5 0 0 0 3 0 0 3 0 0
+ F 0 0 0 0 3 0 4 3 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 0
+ H 0 0 0 0 0 3 0 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 4 0
+ J 0 0 0 0 0 0 0 0 4 0 0
+ K 3 1 0 0 0 0 0 0 0 0 0
+    </t>
   </si>
   <si>
     <t>Path from A to D: A -&gt; B -&gt; C -&gt; D
-Path from D to K: D -&gt; C -&gt; B -&gt; G -&gt; H -&gt; K</t>
-  </si>
-  <si>
-    <t>Path from A to M: A -&gt; K -&gt; L -&gt; M
-Path from M to N: M -&gt; N</t>
-  </si>
-  <si>
-    <t>Path from A to J: A -&gt; E -&gt; F -&gt; G -&gt; I -&gt; J
-Path from J to Q: J -&gt; I -&gt; G -&gt; Q</t>
-  </si>
-  <si>
-    <t>Path from A to E: A -&gt; E
-Path from E to L: E -&gt; A -&gt; J -&gt; L</t>
-  </si>
-  <si>
-    <t>Path from A to K: A -&gt; B -&gt; K
-Path from K to N: K -&gt; B -&gt; N</t>
-  </si>
-  <si>
-    <t>Path from A to C: A -&gt; B -&gt; C
-Path from C to N: C -&gt; B -&gt; A -&gt; F -&gt; H -&gt; I -&gt; J -&gt; N</t>
-  </si>
-  <si>
-    <t>Path from A to E: A -&gt; F -&gt; E
-Path from E to K: E -&gt; K</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node A to node E is A -&gt; G -&gt; H -&gt; E. The least cost path to travel from node E to node N is E -&gt; L -&gt; M -&gt; N. Therefore, the complete path is A -&gt; G -&gt; H -&gt; E -&gt; L -&gt; M -&gt; N.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node F, and then from node node F to node N is:
+Path from D to P: D -&gt; C -&gt; B -&gt; A -&gt; H -&gt; P</t>
+  </si>
+  <si>
+    <t>Path from A to G: A -&gt; D -&gt; E -&gt; F -&gt; G
+Path from G to P: G -&gt; F -&gt; E -&gt; D -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>Path from A to F: A -&gt; E -&gt; F
+Path from F to P: F -&gt; J -&gt; P</t>
+  </si>
+  <si>
+    <t>Path from A to J: A -&gt; J
+Path from J to K: J -&gt; A -&gt; K</t>
+  </si>
+  <si>
+    <t>Path from A to K: A -&gt; K
+Path from K to M: K -&gt; A -&gt; M</t>
+  </si>
+  <si>
+    <t>Path from A to M: A -&gt; L -&gt; M
+Path from M to P: M -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>Path from A to D: A -&gt; B -&gt; C -&gt; D
+Path from D to K: D -&gt; K</t>
+  </si>
+  <si>
+    <t>Path from A to E: A -&gt; B -&gt; D -&gt; E
+Path from E to N: E -&gt; D -&gt; B -&gt; A -&gt; H -&gt; J -&gt; N</t>
+  </si>
+  <si>
+    <t>Path from A to G: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G
+Path from G to S: G -&gt; F -&gt; E -&gt; D -&gt; C -&gt; S</t>
+  </si>
+  <si>
+    <t>Path from A to D: A -&gt; B -&gt; D
+Path from D to K: D -&gt; B -&gt; K</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node D, and then from node node D to node P is:
+Path from A to D: A -&gt; G -&gt; H -&gt; D
+Path from D to P: D -&gt; P
+The sequences of nodes are: A -&gt; G -&gt; H -&gt; D -&gt; P</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node G, and then from node G to node P is:
+Path from A to G: A -&gt; H -&gt; G
+Path from G to P: G -&gt; P
+The sequences of nodes are: AHG and GPP.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node F, and then from node node F to node P is:
 Path from A to F: A -&gt; G -&gt; H -&gt; F
-Path from F to N: F -&gt; L -&gt; M -&gt; N
-The sequences of nodes are: A -&gt; G -&gt; H -&gt; F -&gt; L -&gt; M -&gt; N</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node G, and then from node G to node Q is:
-Path from A to G: A -&gt; H -&gt; G
-Path from G to Q: G -&gt; Q
-The sequences of nodes are: AHGQ.</t>
-  </si>
-  <si>
-    <t>Path from A to D: A -&gt; G -&gt; H -&gt; D
-Path from D to K: D -&gt; K</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node M and then from node M to node N, we can use Dijkstra's algorithm. Here are the steps:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances to its neighbors (B, C, D, E, and H) by adding the edge weight to the current distance. If the new distance is smaller than the previous distance, update the distance.
-4. Repeat steps 2-3 until all nodes are visited or the target node (M) is visited.
-Following these steps, we get the following distances:
-A: 0
-B: 4
-C: 3
-D: 4
-E: 2
-F: 5
-G: 7
-H: 5
-I: 7
-J: 8
-K: 8
-L: 9
-M: 9
-N: 7
-Now, we can find the path from A to M and from M to N:
-Path from A to M: A -&gt; G -&gt; H -&gt; I -&gt; M
-Path from M to N: M -&gt; N
-So, the least cost path to travel first from node A to node M, and then from node node M to node N is:
-A -&gt; G -&gt; H -&gt; I -&gt; M -&gt; N
-And the sequences of nodes are:
-A, G, H, I, M, N</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node J and then from node J to node Q, we can use Dijkstra's algorithm. Here are the steps:
+Path from F to P: F -&gt; P
+The sequences of nodes are: A -&gt; G -&gt; H -&gt; F -&gt; P</t>
+  </si>
+  <si>
+    <t>Path from A to J: A -&gt; G -&gt; H -&gt; I -&gt; J
+Path from J to K: J -&gt; K</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node A to node K is A -&gt; G -&gt; H -&gt; I -&gt; K. The cost of this path is 1 + 3 + 2 + 4 = 10.
+The least cost path to travel from node K to node M is K -&gt; L -&gt; M. The cost of this path is 4 + 5 = 9.
+So, the total least cost path from A to M is A -&gt; G -&gt; H -&gt; I -&gt; K -&gt; L -&gt; M with a cost of 10 + 9 = 19.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node M and then from node M to node P, we can use Dijkstra's algorithm. Here are the steps:
 1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
 2. Select the node with the smallest distance (A) and mark it as visited.
 3. Update the distances to all neighboring unvisited nodes by adding the distance to the current node and the weight of the edge between the current and neighboring nodes. If the new distance is smaller than the current distance, update the distance.
-4. Repeat steps 2 and 3 until all nodes are visited or the target node (Q) is visited.
+4. Repeat steps 2 and 3 until all nodes are visited or the target node (M) is visited.
 Following these steps, we get the following paths:
-Path from A to J: A -&gt; G -&gt; H -&gt; I -&gt; J
-Path from J to Q: J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q
-So, the least cost path to travel first from node A to node J, and then from node node J to node Q is:
-A -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q
-The cost of this path is 3 + 5 + 4 + 1 + 5 + 2 + 3 + 5 + 3 + 5 = 38.</t>
-  </si>
-  <si>
-    <t>Path from A to E: A -&gt; G -&gt; H -&gt; E
-Path from E to L: E -&gt; J -&gt; K -&gt; L
-The least cost path to travel from node A to node E is A -&gt; G -&gt; H -&gt; E, and the least cost path to travel from node E to node L is E -&gt; J -&gt; K -&gt; L.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node A to node K is A -&gt; G -&gt; H -&gt; I -&gt; K. The least cost path to travel from node K to node N is K -&gt; N.
-So, the two sequences of nodes are:
-1. A -&gt; G -&gt; H -&gt; I -&gt; K -&gt; N
-2. A -&gt; G -&gt; H -&gt; I -&gt; K</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node A to node C is A -&gt; G -&gt; H -&gt; C.
-The least cost path to travel from node C to node N is C -&gt; L -&gt; M -&gt; N.
-So, the two sequences of nodes are:
-1. A -&gt; G -&gt; H -&gt; C -&gt; L -&gt; M -&gt; N
-2. A -&gt; G -&gt; H -&gt; C -&gt; L -&gt; M</t>
+Path from A to M: A -&gt; G -&gt; H -&gt; I -&gt; M
+Path from M to P: M -&gt; N -&gt; O -&gt; P
+So, the least cost path to travel first from node A to node M, and then from node node M to node P is:
+A -&gt; G -&gt; H -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P
+with a total cost of 3 + 1 + 4 + 3 + 1 + 4 + 4 = 21.</t>
+  </si>
+  <si>
+    <t>Path from A to D: A -&gt; G -&gt; H -&gt; D
+Path from D to K: D -&gt; H -&gt; I -&gt; K</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node A to node E is A -&gt; G -&gt; H -&gt; E. The least cost path to travel from node E to node N is E -&gt; N. Therefore, the complete path is A -&gt; G -&gt; H -&gt; E -&gt; N.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node G, and then from node G to node S is:
+Path from A to G: A -&gt; H -&gt; G
+Path from G to S: G -&gt; S
+The sequences of nodes are: AHG and GS.</t>
+  </si>
+  <si>
+    <t>Path from A to D: A -&gt; F -&gt; D
+Path from D to K: D -&gt; J -&gt; K
+The least cost path to travel from node A to node D and then from node D to node K is A -&gt; F -&gt; D -&gt; J -&gt; K with a total cost of 3 + 4 + 1 + 4 = 12.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>Correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -547,34 +530,35 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node E, and then from node node E to node V? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 3 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 4 0 0 0 3 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 5
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 5 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node F, and then from node node F to node W? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 5 0 0 4 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 4 2 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 3 0 2
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0
+ V 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -607,35 +591,37 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node M, and then from node node M to node W? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 1 0 3 0 2 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- B 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 4 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 5 2 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- O 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 4
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 5 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node I, and then from node node I to node Y? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0
+ C 0 4 0 2 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 5 0 0 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 4 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ R 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ U 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -668,38 +654,33 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node H, and then from node node H to node Z? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 4 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 3 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 5 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 3 2 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 4 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1
- Z 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node F, and then from node node F to node U? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 2 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 3 0 0 2 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1
+ E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 2 0 0 0 0 2 4 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 4 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 4 2 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 4 2 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ U 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -732,29 +713,32 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node F, and then from node node F to node U? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 3
- B 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 3 4 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 2 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 4 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- T 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+What is the least cost path to travel first from node A to node R, and then from node node R to node X? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 2 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 5 0 0 5 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 4 0 0 1 3 0 0 0 2 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 3 0 0 1 5 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 4 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 2
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ U 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0
     </t>
   </si>
   <si>
@@ -791,31 +775,31 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node E, and then from node node E to node W? Return 2 sequences of nodes in response.
+What is the least cost path to travel first from node A to node R, and then from node node R to node W? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 2 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 2 0 0 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 3 0 0 0 0 0 0 0 5 3 0 4 0 0 0 3 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 2 5 0 1 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 5
- U 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 0 2 2 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 5 0 1 3 2 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 5 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2
+ W 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0
     </t>
   </si>
   <si>
@@ -852,38 +836,38 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node I, and then from node node I to node Z? Return 2 sequences of nodes in response.
+What is the least cost path to travel first from node A to node E, and then from node node E to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- C 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 2 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- E 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 5 0 0 0 0 5 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0 3
- I 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 4 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0 1
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 4 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- U 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
- Y 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- Z 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 3 0 0 0 0 0 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0 0 1 0 0 0 2 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 3 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 5
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -916,38 +900,34 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node X, and then from node node X to node Z? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- B 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 5 3 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 4 0 0 0 4 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- P 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 5 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 5 0 0 2
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 4 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node O, and then from node node O to node V? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 4 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ H 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 2 0 0
+ I 0 0 0 0 0 0 0 3 0 5 0 3 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 2 3 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 4 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ T 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ U 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -980,38 +960,36 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node Y, and then from node node Y to node Z? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- F 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- J 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 3 0 0 0 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 3 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 4 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- U 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
- Z 0 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node J, and then from node node J to node X? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ E 0 0 0 1 0 5 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 1 2
+ F 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 4 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 5 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 2 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0
+ W 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ X 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1044,35 +1022,33 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node L, and then from node node L to node W? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 4 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 3
- J 0 0 0 0 0 0 0 0 5 0 1 4 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 4 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 4 5 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3
- W 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node N, and then from node node N to node U? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 4 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 4
+ D 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 0 0 1 5 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 3 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 3 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 2
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ U 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node S, and then from node node S to node Z? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1105,122 +1081,132 @@
 Solution: Path from A to S: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
 Path from S to Z: S -&gt; Z
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node A to node H, and then from node node H to node U? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 2 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 5
- B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 2 0 4 0 0 3 2 0 0 3 0 0 0
- I 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
- R 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 5 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- T 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>Path from A to E: A -&gt; B -&gt; C -&gt; D -&gt; E
-Path from E to V: E -&gt; D -&gt; C -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; U -&gt; V</t>
-  </si>
-  <si>
-    <t>Path from A to M: A -&gt; F -&gt; H -&gt; M
-Path from M to W: M -&gt; H -&gt; F -&gt; A -&gt; O -&gt; U -&gt; V -&gt; W</t>
-  </si>
-  <si>
-    <t>Path from A to H: A -&gt; B -&gt; D -&gt; E -&gt; F -&gt; H
-Path from H to Z: H -&gt; F -&gt; E -&gt; D -&gt; I -&gt; K -&gt; L -&gt; Z</t>
-  </si>
-  <si>
-    <t>Path from A to F: A -&gt; B -&gt; C -&gt; F
-Path from F to U: F -&gt; C -&gt; B -&gt; A -&gt; U</t>
-  </si>
-  <si>
-    <t>Path from A to E: A -&gt; C -&gt; E
-Path from E to W: E -&gt; C -&gt; A -&gt; U -&gt; V -&gt; W</t>
-  </si>
-  <si>
-    <t>Path from A to I: A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; I
-Path from I to Z: I -&gt; H -&gt; Z</t>
-  </si>
-  <si>
-    <t>Path from A to X: A -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; Z -&gt; Y -&gt; X
-Path from X to Z: X -&gt; Y -&gt; Z</t>
-  </si>
-  <si>
-    <t>Path from A to Y: A -&gt; D -&gt; E -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y
-Path from Y to Z: Y -&gt; S -&gt; R -&gt; Q -&gt; O -&gt; L -&gt; Z</t>
-  </si>
-  <si>
-    <t>Path from A to L: A -&gt; B -&gt; H -&gt; I -&gt; J -&gt; L
-Path from L to W: L -&gt; J -&gt; I -&gt; W</t>
-  </si>
-  <si>
-    <t>Path from A to H: A -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H
-Path from H to U: H -&gt; G -&gt; F -&gt; E -&gt; D -&gt; C -&gt; A -&gt; U</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node E, and then from node node E to node V is:
-Path from A to E: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E
-Path from E to V: E -&gt; V</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node M, and then from node node M to node W is:
-Path from A to M: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; M
-Path from M to W: M -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node H, and then from node node H to node Z is:
-A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; H -&gt; Z
-The cost of this path is 2 + 3 + 0 + 5 + 0 + 0 + 0 + 0 + 0 + 0 + 0 + 0 = 13.</t>
+What is the least cost path to travel first from node A to node H, and then from node node H to node Z? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ B 5 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 5 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 3 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 4
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 3 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 5 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ U 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 5 0
+    </t>
+  </si>
+  <si>
+    <t>Path from A to F: A -&gt; C -&gt; E -&gt; F
+Path from F to W: F -&gt; E -&gt; C -&gt; V -&gt; W</t>
+  </si>
+  <si>
+    <t>Path from A to I: A -&gt; B -&gt; H -&gt; I
+Path from I to Y: I -&gt; H -&gt; B -&gt; R -&gt; Y</t>
+  </si>
+  <si>
+    <t>Path from A to F: A -&gt; B -&gt; D -&gt; F
+Path from F to U: F -&gt; D -&gt; U</t>
+  </si>
+  <si>
+    <t>Path from A to R: A -&gt; C -&gt; H -&gt; J -&gt; P -&gt; Q -&gt; R
+Path from R to X: R -&gt; Q -&gt; P -&gt; S -&gt; X</t>
+  </si>
+  <si>
+    <t>Path from A to R: A -&gt; B -&gt; C -&gt; G -&gt; I -&gt; L -&gt; M -&gt; P -&gt; Q -&gt; R
+Path from R to W: R -&gt; Q -&gt; P -&gt; M -&gt; L -&gt; I -&gt; W</t>
+  </si>
+  <si>
+    <t>Path from A to E: A -&gt; E
+Path from E to Z: E -&gt; K -&gt; M -&gt; Q -&gt; S -&gt; Z</t>
+  </si>
+  <si>
+    <t>Path from A to O: A -&gt; C -&gt; D -&gt; E -&gt; G -&gt; H -&gt; I -&gt; L -&gt; M -&gt; N -&gt; O
+Path from O to V: O -&gt; N -&gt; M -&gt; L -&gt; I -&gt; H -&gt; G -&gt; U -&gt; V</t>
+  </si>
+  <si>
+    <t>Path from A to J: A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; I -&gt; J
+Path from J to X: J -&gt; I -&gt; G -&gt; F -&gt; E -&gt; X</t>
+  </si>
+  <si>
+    <t>Path from A to N: A -&gt; B -&gt; C -&gt; M -&gt; N
+Path from N to U: N -&gt; P -&gt; Q -&gt; U</t>
+  </si>
+  <si>
+    <t>Path from A to H: A -&gt; B -&gt; E -&gt; F -&gt; G -&gt; H
+Path from H to Z: H -&gt; G -&gt; F -&gt; K -&gt; L -&gt; M -&gt; N -&gt; Z</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node F, and then from node node F to node W is:
+A -&gt; F -&gt; W
+The sequence of nodes is A -&gt; F -&gt; W.
+The cost of this path is 3 + 2 = 5.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node I, and then from node node I to node Y is:
+A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; I -&gt; Y
+The cost of this path is 2 + 4 + 2 + 4 + 2 + 4 + 2 + 4 + 2 = 28.</t>
   </si>
   <si>
     <t>The least cost path to travel first from node A to node F, and then from node node F to node U is:
 A -&gt; F -&gt; U
 The sequence of nodes is: A -&gt; F -&gt; U
-The cost of this path is 3 + 3 = 6.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node E, and then from node node E to node W is:
-A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The least cost path to travel first from node A to node I, and then from node node I to node Z is:
-A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y -&gt; Z
-The cost of this path is 2 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + 1 + </t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node X is A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S.
-The least cost path to travel from node X to node Z is X -&gt; Y -&gt; Z.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node Y, and then from node node Y to node Z is:
-A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; Y -&gt; Z
-The cost of this path is 2 + 1 + 1 + 5 + 1 + 1 + 5 + 1 + 1 = 22.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node L, and then from node node L to node W is:
-Path from A to L: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; L
-Path from L to W: L -&gt; W
-The total cost for this path is 2 + 4 + 2 + 3 + 5 + 4 + 2 + 3 + 1 + 4 = 30.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node A to node H, and then from node node H to node U is:
-A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+The cost of this path is 2.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node R, and then from node node R to node X is:
+Path from A to R: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
+Path from R to X: R -&gt; X
+The total cost for this path is 2 + 3 + 1 + 2 + 5 + 4 + 1 + 5 = 25.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node R, and then from node node R to node W is:
+Path from A to R: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S
+Path from R to W: R -&gt; S -&gt; Z -&gt; A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; A -&gt; F -&gt; G -&gt; T</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node E is A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S.
+The least cost path to travel from node E to node Z is E -&gt; Z.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node O, and then from node node O to node V is:
+Path from A to O: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; O
+Path from O to V: O -&gt; V
+The total cost for this path is 2 + 3 + 2 + 5 + 3 + 2 + 3 + 2 + 3 = 25.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node J, and then from node node J to node X is:
+Path from A to J: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; I -&gt; J
+Path from J to X: J -&gt; X
+The total cost for this path is 2 + 3 + 2 + 4 + 5 + 1 + 2 + 1 + 1 + 2 = 25.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node N, and then from node node N to node U is:
+Path from A to N: A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; N
+Path from N to U: N -&gt; U</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node A to node H, and then from node node H to node Z is:
+A -&gt; F -&gt; G -&gt; T -&gt; U -&gt; V -&gt; W -&gt; R -&gt; S -&gt; H -&gt; Z
+The cost of this path is 2 + 3 + 3 + 5 + 5 + 5 + 1 + 1 + 1 = 26.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node P to node Q, and then from node node Q to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1253,33 +1239,38 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node H to node S, and then from node node S to node J? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- D 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- G 0 4 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0
- I 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 4 0 0 3 0 0 0 3 0 3 0 0 0 0 4 0
- M 0 0 0 0 0 0 0 0 0 0 5 3 0 2 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 1
- O 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 4 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 2 0
- S 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- T 0 0 0 0 0 0 0 3 0 3 0 4 0 0 0 0 0 2 0 0 0
- U 0 0 4 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node M to node W, and then from node node W to node N? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5 0
+ D 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ E 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
+ J 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 2 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 4
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ Q 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 3
+ U 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 4
+ W 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 2 0 0 0 0 0 0 0 0
+ Y 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Z 0 0 0 0 0 0 0 0 4 0 0 4 0 0 0 3 5 0 0 3 0 4 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node P to node Q, and then from node node Q to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1312,38 +1303,37 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node V to node W, and then from node node W to node P? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 5 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 2 3 5 2 0 0 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0
- G 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0
- L 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- M 0 3 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- N 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 4
- S 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 3 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1
- X 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node P to node F, and then from node node F to node L? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 5 3 0 0
+ C 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ D 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ F 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 2 0 0 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 5 0
+ N 0 2 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 4 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ R 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ T 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0
+ V 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ W 0 3 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 3
+ Y 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node P to node Q, and then from node node Q to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1376,35 +1366,37 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node Q to node I, and then from node node I to node D? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
- B 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 3 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0
- D 0 0 0 0 0 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 4
- F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0
- G 0 0 3 5 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 5
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- L 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- O 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- Q 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0
- S 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- V 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 5 0 0 0 0 0
- W 3 0 0 0 4 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 2 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node G to node E, and then from node node E to node X? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ B 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0
+ D 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 4 0 0
+ F 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 2 0 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5 0 0 4 0 0 0 0 0 3
+ I 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
+ L 0 0 0 0 0 0 5 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ N 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0
+ O 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0
+ P 0 0 0 0 0 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ R 0 0 1 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ W 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ X 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ Y 3 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node P to node Q, and then from node node Q to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1437,34 +1429,38 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node G to node F, and then from node node F to node U? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V
- A 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 5 0 0 2 0 0
- B 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- E 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- F 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 1 0 5 0 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 3 0
- I 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 2 0 0 0 0
- N 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4
- P 5 0 0 0 0 0 0 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0
- Q 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- T 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node E to node J, and then from node node J to node W? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ B 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ C 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ G 0 5 0 2 4 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ J 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0
+ L 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ N 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ S 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0 0 4 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2
+ X 3 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 2
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0
+ Z 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node P to node Q, and then from node node Q to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1497,35 +1493,36 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node N to node U, and then from node node U to node W? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 3 0
- C 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 2 0 0 0 0 1 0 0 0 2 0 0 0 0 0 3 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- F 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 5 0 0 1 2 0 0 0 0 0 5 0 0 0 0 1
- H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- K 0 0 0 1 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 2
- L 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0
- O 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 0
- Q 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 5 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0
- U 0 2 0 3 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0
- V 5 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node E to node T, and then from node node T to node D? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 4
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4 0 0 0
+ D 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ L 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ N 4 0 2 0 0 0 0 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ R 0 0 0 0 1 0 0 0 0 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0
+ S 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0
+ U 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ W 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ X 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node P to node Q, and then from node node Q to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1558,38 +1555,35 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node F to node J, and then from node node J to node V? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- B 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 1 0
- E 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0
- H 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 0 0
- L 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 4 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0
- R 0 0 0 1 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 5 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- W 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Z 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node Q to node K, and then from node node K to node H? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 5 0 0 5 0 0
+ C 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 4 0 0 0 0 0 0
+ D 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 2 0 0 2 2 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ H 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0
+ K 0 0 3 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ Q 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ R 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4
+ S 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 5 0 0 0 0 0
+ T 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ W 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node P to node Q, and then from node node Q to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1622,34 +1616,35 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node T to node O, and then from node node O to node Q? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V
- A 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 2 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- F 4 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 2 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 2 0
- M 0 0 0 4 0 0 0 4 0 0 0 3 0 0 0 0 5 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0 0
- O 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 2
- Q 0 0 0 0 2 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 3 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node W to node J, and then from node node J to node L? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 5 0 0 0 0 0
+ C 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5
+ G 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0
+ J 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ L 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ N 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ P 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 4 0
+ Q 0 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 2 0 0 0 0
+ R 0 5 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ S 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 5 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 4 0 0 0 0 0 0 0
+ W 0 0 0 0 0 5 1 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node P to node Q, and then from node node Q to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1682,36 +1677,38 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node W to node L, and then from node node L to node P? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5 4 0 0 5 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0
- C 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 1 0 0 4 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 1
- E 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 1 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- H 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- I 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- J 0 0 3 0 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 4 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- Q 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- R 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- U 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 5 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node W to node K, and then from node node K to node Z? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0 0 0 0 0 0
+ E 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 4 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ H 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 3 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 5 0 0
+ J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ Q 0 1 0 4 0 0 0 0 3 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ T 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ V 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ X 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ Y 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ Z 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node P to node Q, and then from node node Q to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
@@ -1744,33 +1741,34 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node X to node V, and then from node node V to node R? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- C 5 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 3 0 0 0 0
- D 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 5 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- F 0 0 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- G 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- H 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- I 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0
- K 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 4 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5 0 0 0 0 2
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- O 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0
- Q 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- S 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- T 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0
- U 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- V 0 2 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 5 0 0
- W 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- X 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0
+What is the least cost path to travel first from node U to node N, and then from node node N to node G? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
+ F 0 3 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ H 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ K 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0
+ O 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0
+ Q 0 0 0 3 0 0 1 0 0 0 0 0 0 0 3 3 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 1 0 0 0 0 0 0
+ T 0 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
+ X 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Z 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
     </t>
   </si>
   <si>
@@ -1807,133 +1805,132 @@
 Solution: Path from P to Q: P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q
 Path from Q to J: Q -&gt; L -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node S to node H, and then from node node H to node O? Return 2 sequences of nodes in response.
+What is the least cost path to travel first from node X to node C, and then from node node C to node S? Return 2 sequences of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0 0 0 0 0 0 5
- E 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 4 0 0 0 5 0 2 1 0 0
- F 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- H 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- J 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0
- O 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- P 0 4 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 2 0 0 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
- U 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 2 0 0 0 0 0 0 0 0 1 3 0 0 0 0 3 0 0 0 0 2 1
- X 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- Z 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>Path from H to S: H -&gt; T -&gt; R -&gt; S
-Path from S to J: S -&gt; R -&gt; T -&gt; J</t>
-  </si>
-  <si>
-    <t>Path from V to W: V -&gt; M -&gt; E -&gt; P -&gt; W
-Path from W to P: W -&gt; P</t>
-  </si>
-  <si>
-    <t>Path from Q to I: Q -&gt; S -&gt; E -&gt; W -&gt; U -&gt; I
-Path from I to D: I -&gt; U -&gt; W -&gt; E -&gt; S -&gt; Q -&gt; C -&gt; O -&gt; H -&gt; D</t>
-  </si>
-  <si>
-    <t>Path from G to F: G -&gt; F
-Path from F to U: F -&gt; G -&gt; D -&gt; U</t>
-  </si>
-  <si>
-    <t>Path from N to U: N -&gt; U
-Path from U to W: U -&gt; D -&gt; K -&gt; W</t>
-  </si>
-  <si>
-    <t>Path from F to J: F -&gt; P -&gt; L -&gt; D -&gt; R -&gt; M -&gt; T -&gt; J
-Path from J to V: J -&gt; T -&gt; M -&gt; R -&gt; D -&gt; L -&gt; P -&gt; V</t>
-  </si>
-  <si>
-    <t>Path from T to O: T -&gt; S -&gt; N -&gt; P -&gt; L -&gt; M -&gt; D -&gt; K -&gt; B -&gt; F -&gt; O
-Path from O to Q: O -&gt; F -&gt; B -&gt; K -&gt; D -&gt; E -&gt; Q</t>
-  </si>
-  <si>
-    <t>Path from W to L: W -&gt; H -&gt; C -&gt; J -&gt; L
-Path from L to P: L -&gt; J -&gt; C -&gt; H -&gt; W -&gt; A -&gt; I -&gt; X -&gt; D -&gt; P</t>
-  </si>
-  <si>
-    <t>Path from X to V: X -&gt; F -&gt; E -&gt; V
-Path from V to R: V -&gt; E -&gt; F -&gt; X -&gt; R</t>
-  </si>
-  <si>
-    <t>Path from S to H: S -&gt; D -&gt; O -&gt; W -&gt; E -&gt; H
-Path from H to O: H -&gt; E -&gt; W -&gt; O</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node H to node S, and then from node node S to node J is:
-H -&gt; M -&gt; A -&gt; J -&gt; L -&gt; S -&gt; Q
-The cost of this path is 2 + 3 + 3 + 3 + 2 + 3 = 17.
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ B 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ E 0 0 0 0 0 0 3 0 0 1 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0
+ G 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ H 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ I 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 4 0
+ M 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 5 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ T 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ Z 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+    </t>
+  </si>
+  <si>
+    <t>Path from M to W: M -&gt; X -&gt; L -&gt; Z -&gt; T -&gt; O -&gt; K -&gt; W
+Path from W to N: W -&gt; K -&gt; O -&gt; T -&gt; Z -&gt; L -&gt; N</t>
+  </si>
+  <si>
+    <t>Path from P to F: P -&gt; K -&gt; G -&gt; S -&gt; U -&gt; Q -&gt; I -&gt; D -&gt; F
+Path from F to L: F -&gt; D -&gt; I -&gt; Q -&gt; U -&gt; S -&gt; G -&gt; H -&gt; W -&gt; L</t>
+  </si>
+  <si>
+    <t>Path from G to E: G -&gt; L -&gt; N -&gt; E
+Path from E to X: E -&gt; N -&gt; L -&gt; G -&gt; A -&gt; Y -&gt; X</t>
+  </si>
+  <si>
+    <t>Path from E to J: E -&gt; G -&gt; B -&gt; Z -&gt; X -&gt; I -&gt; J
+Path from J to W: J -&gt; H -&gt; Q -&gt; W</t>
+  </si>
+  <si>
+    <t>Path from E to T: E -&gt; S -&gt; X -&gt; V -&gt; H -&gt; O -&gt; T
+Path from T to D: T -&gt; O -&gt; H -&gt; V -&gt; X -&gt; S -&gt; E -&gt; D</t>
+  </si>
+  <si>
+    <t>Path from Q to K: Q -&gt; C -&gt; K
+Path from K to H: K -&gt; C -&gt; Q -&gt; E -&gt; H</t>
+  </si>
+  <si>
+    <t>Path from W to J: W -&gt; F -&gt; S -&gt; Q -&gt; E -&gt; I -&gt; R -&gt; B -&gt; J
+Path from J to L: J -&gt; B -&gt; R -&gt; I -&gt; E -&gt; Q -&gt; S -&gt; F -&gt; W -&gt; L</t>
+  </si>
+  <si>
+    <t>Path from W to K: W -&gt; C -&gt; Y -&gt; U -&gt; H -&gt; M -&gt; Q -&gt; D -&gt; T -&gt; J -&gt; K
+Path from K to Z: K -&gt; J -&gt; T -&gt; D -&gt; Q -&gt; M -&gt; H -&gt; U -&gt; Y -&gt; C -&gt; W -&gt; Z</t>
+  </si>
+  <si>
+    <t>Path from U to N: U -&gt; P -&gt; Q -&gt; O -&gt; T -&gt; S -&gt; M -&gt; N
+Path from N to G: N -&gt; M -&gt; S -&gt; T -&gt; O -&gt; Q -&gt; G</t>
+  </si>
+  <si>
+    <t>Path from X to C: X -&gt; K -&gt; F -&gt; B -&gt; I -&gt; W -&gt; G -&gt; E -&gt; J -&gt; C
+Path from C to S: C -&gt; J -&gt; E -&gt; S</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node M to node W, and then from node node W to node N is:
+M -&gt; A -&gt; J -&gt; L -&gt; Q -&gt; W -&gt; N
+The least cost path is 2 + 2 + 2 + 2 + 2 = 10.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node P to node F, and then from node F to node L is:
+P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; F
+The cost of this path is 2 + 3 + 1 + 2 + 1 = 9.
+The second path from P to F is:
+P -&gt; M -&gt; A -&gt; J -&gt; L -&gt; F
+The cost of this path is 2 + 3 + 1 + 2 + 1 = 9.
+Therefore, both paths have the same cost of 9.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node G to node E, and then from node node E to node X is:
+G -&gt; E -&gt; X
+The path from G to E is 0 cost, and the path from E to X is also 0 cost. Therefore, the total cost for this path is 0 + 0 = 0.
+The sequence of nodes for this path is: G -&gt; E -&gt; X.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node E to node J is E -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q.
+The least cost path to travel from node J to node W is J -&gt; L -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node E to node T, and then from node node T to node D is:
+E -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q -&gt; L -&gt; J -&gt; T -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; D
+The cost of this path is 2 + 4 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 = 24.
 The two sequences of nodes are:
-1. H M A J L S Q
-2. H M A J L S Q</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node V to node W is V -&gt; U -&gt; T -&gt; L -&gt; W.
-The least cost path to travel from node W to node P is W -&gt; L -&gt; J -&gt; I -&gt; P.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node Q to node I is Q -&gt; L -&gt; J -&gt; I.
-The least cost path to travel from node I to node D is I -&gt; M -&gt; A -&gt; J -&gt; L -&gt; D.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node G to node F, and then from node node F to node U is:
-G -&gt; F -&gt; U
-The path is G -&gt; F -&gt; U with a total cost of 5 + 0 = 5.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node N to node U, and then from node node U to node W is:
-N -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q -&gt; L -&gt; J -&gt; I -&gt; H -&gt; G -&gt; W
-The cost of this path is 2 + 3 + 2 + 2 + 2 + 2 + 2 + 2 + 2 + 2 = 23.
+1. E M A J L Q L J T R S T U V D
+2. E M A J L Q L J T R S T U V D</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node Q to node K is Q -&gt; L -&gt; J -&gt; M -&gt; A -&gt; I -&gt; H -&gt; G -&gt; F -&gt; E -&gt; D -&gt; C -&gt; B -&gt; A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; Q.
+The least cost path to travel from node K to node H is K -&gt; L -&gt; J -&gt; M -&gt; A -&gt; I -&gt; H -&gt; G -&gt; F -&gt; E -&gt; D -&gt; C -&gt; B -&gt; A -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; H.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node W to node J, and then from node J to node L is as follows:
+W -&gt; L -&gt; J -&gt; L -&gt; Q
+The cost of this path is 2 + 3 + 2 + 1 = 8.
 The two sequences of nodes are:
-1. N -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q -&gt; L -&gt; J -&gt; I -&gt; H -&gt; G -&gt; W
-2. N -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q -&gt; L -&gt; J -&gt; I -&gt; H -&gt; G -&gt; W</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node F to node J is F -&gt; M -&gt; A -&gt; J -&gt; L -&gt; Q, and the least cost path to travel from node J to node V is J -&gt; L -&gt; V.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node T to node O, and then from node node O to node Q is:
-Path from T to O: T -&gt; L -&gt; J -&gt; I -&gt; O
-Path from O to Q: O -&gt; L -&gt; J -&gt; I -&gt; Q
-The total cost for this path is 2 + 2 + 2 + 2 = 8.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node W to node L, and then from node node L to node P is as follows:
-Path from W to L: W -&gt; M -&gt; A -&gt; J -&gt; L
-Path from L to P: L -&gt; P
-The total cost for this path is 2 + 0 = 2.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node X to node V is X -&gt; L -&gt; J -&gt; M -&gt; A -&gt; I -&gt; H -&gt; G -&gt; E -&gt; F -&gt; D -&gt; C -&gt; B -&gt; A -&gt; X.
-The least cost path to travel from node V to node R is V -&gt; L -&gt; J -&gt; M -&gt; A -&gt; I -&gt; H -&gt; G -&gt; E -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V -&gt; W -&gt; X -&gt; Y -&gt; Z.</t>
-  </si>
-  <si>
-    <t>The least cost path to travel first from node S to node H, and then from node node H to node O is:
-S -&gt; H -&gt; O
-The path from S to H is S -&gt; M -&gt; A -&gt; J -&gt; L -&gt; H
-The path from H to O is H -&gt; L -&gt; O
-So the complete path is: S -&gt; M -&gt; A -&gt; J -&gt; L -&gt; H -&gt; L -&gt; O</t>
-  </si>
-  <si>
-    <t>Correct</t>
+1. W -&gt; L -&gt; J -&gt; L -&gt; Q
+2. W -&gt; L -&gt; J -&gt; L -&gt; Q</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node W to node K, and then from node node K to node Z is:
+Path from W to K: W -&gt; U -&gt; M -&gt; A -&gt; J -&gt; L -&gt; K
+Path from K to Z: K -&gt; L -&gt; J -&gt; I -&gt; H -&gt; G -&gt; Z
+Note that the paths may not be the shortest possible paths, as the adjacency matrix does not contain weights for the edges. To find the shortest paths, weights for the edges would need to be provided.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node U to node N is U -&gt; M -&gt; A -&gt; J -&gt; L -&gt; N.
+The least cost path to travel from node N to node G is N -&gt; G.</t>
+  </si>
+  <si>
+    <t>The least cost path to travel first from node X to node C is X -&gt; C, and the least cost path to travel from node C to node S is C -&gt; S.</t>
   </si>
 </sst>
 </file>
@@ -2392,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2480,13 +2477,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -2494,13 +2491,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -2508,13 +2505,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2522,27 +2519,27 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -2550,13 +2547,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -2564,13 +2561,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -2578,13 +2575,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -2592,13 +2589,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -2606,13 +2603,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -2647,13 +2644,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
@@ -2661,13 +2658,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -2675,13 +2672,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2689,13 +2686,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -2703,13 +2700,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -2717,27 +2714,27 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -2745,13 +2742,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -2759,13 +2756,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -2773,16 +2770,16 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
